--- a/data/2018_Silverman_et_al-isotope_data_summary.xlsx
+++ b/data/2018_Silverman_et_al-isotope_data_summary.xlsx
@@ -395,16 +395,16 @@
         <v>0.1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.084195259341794</v>
+        <v>0.124681531161789</v>
       </c>
       <c r="D2" t="n">
         <v>4</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.12586967030865</v>
+        <v>-1.15445022283564</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0258820886792587</v>
+        <v>0.0226338699936589</v>
       </c>
     </row>
     <row r="3">
@@ -415,16 +415,16 @@
         <v>0.3</v>
       </c>
       <c r="C3" t="n">
-        <v>0.084195259341794</v>
+        <v>0.124681531161789</v>
       </c>
       <c r="D3" t="n">
         <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.32272458888468</v>
+        <v>-1.30528492306311</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0734450219550982</v>
+        <v>0.0706278359487137</v>
       </c>
     </row>
     <row r="4">
@@ -435,16 +435,16 @@
         <v>0.5</v>
       </c>
       <c r="C4" t="n">
-        <v>0.084195259341794</v>
+        <v>0.124681531161789</v>
       </c>
       <c r="D4" t="n">
         <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.52487661170029</v>
+        <v>-1.46560829286479</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0272166771619255</v>
+        <v>0.030327157755427</v>
       </c>
     </row>
     <row r="5">
@@ -455,16 +455,16 @@
         <v>0.8</v>
       </c>
       <c r="C5" t="n">
-        <v>0.084195259341794</v>
+        <v>0.124681531161789</v>
       </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.71681881694467</v>
+        <v>-1.61715181083324</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0132847784520013</v>
+        <v>0.0109386975916757</v>
       </c>
     </row>
     <row r="6">
@@ -475,16 +475,16 @@
         <v>0.1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.084195259341794</v>
+        <v>0.124681531161789</v>
       </c>
       <c r="D6" t="n">
         <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.46713039451101</v>
+        <v>-1.46732181737297</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00098366977862957</v>
+        <v>0.0013575214422366</v>
       </c>
     </row>
     <row r="7">
@@ -495,16 +495,16 @@
         <v>0.3</v>
       </c>
       <c r="C7" t="n">
-        <v>0.084195259341794</v>
+        <v>0.124681531161789</v>
       </c>
       <c r="D7" t="n">
         <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.56953407777144</v>
+        <v>-1.5687974358119</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0193716049786872</v>
+        <v>0.0193543794233894</v>
       </c>
     </row>
     <row r="8">
@@ -515,16 +515,16 @@
         <v>0.5</v>
       </c>
       <c r="C8" t="n">
-        <v>0.084195259341794</v>
+        <v>0.124681531161789</v>
       </c>
       <c r="D8" t="n">
         <v>3</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.64685078010391</v>
+        <v>-1.64658443147583</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0393926602537957</v>
+        <v>0.0394696608088749</v>
       </c>
     </row>
     <row r="9">
@@ -535,16 +535,16 @@
         <v>0.8</v>
       </c>
       <c r="C9" t="n">
-        <v>0.084195259341794</v>
+        <v>0.124681531161789</v>
       </c>
       <c r="D9" t="n">
         <v>3</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.73271433076741</v>
+        <v>-1.73154159745066</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0302485036558925</v>
+        <v>0.0300247618462813</v>
       </c>
     </row>
   </sheetData>
